--- a/faculty_call_reports.xlsx
+++ b/faculty_call_reports.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,15 +446,20 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Phone Number</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Status</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
@@ -471,17 +476,18 @@
           <t>rk</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
         <is>
           <t xml:space="preserve">called positive </t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>he is intrest to join cse</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2025-05-07</t>
         </is>
@@ -498,17 +504,18 @@
           <t>tkr</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
         <is>
           <t xml:space="preserve">positive </t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>he is joined in ece</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2025-05-07</t>
         </is>
@@ -525,17 +532,50 @@
           <t>rr</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
         <is>
           <t>called</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>ghhghh</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-05-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>anil</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>kk</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>9704755549</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>he joined in cse</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>2025-05-07</t>
         </is>

--- a/faculty_call_reports.xlsx
+++ b/faculty_call_reports.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,51 +473,59 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>rk</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
+          <t>tttt</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>9704755549</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">called positive </t>
+          <t>called</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>he is intrest to join cse</t>
+          <t>he joined in cse</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-09</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ak</t>
+          <t>anil</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>tkr</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
+          <t>hhhh</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>9704755549</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">positive </t>
+          <t>called</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>he is joined in ece</t>
+          <t>he joined in cse</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-09</t>
         </is>
       </c>
     </row>
@@ -529,18 +537,18 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>rr</t>
+          <t>rk</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>called</t>
+          <t xml:space="preserve">called positive </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ghhghh</t>
+          <t>he is intrest to join cse</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -552,30 +560,86 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>ak</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>tkr</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">positive </t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>he is joined in ece</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-05-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>anil</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>rr</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>called</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ghhghh</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-05-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>anil</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>kk</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>9704755549</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>positive</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>he joined in cse</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>2025-05-07</t>
         </is>

--- a/faculty_call_reports.xlsx
+++ b/faculty_call_reports.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -537,51 +537,59 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>rk</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
+          <t>neha</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>9704755549</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">called positive </t>
+          <t>Connected</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>he is intrest to join cse</t>
+          <t>ffff</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-09</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ak</t>
+          <t>anil</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>tkr</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
+          <t>neha</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>9704755549</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">positive </t>
+          <t>Connected</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>he is joined in ece</t>
+          <t>ffff</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-09</t>
         </is>
       </c>
     </row>
@@ -593,18 +601,18 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>rr</t>
+          <t>rk</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>called</t>
+          <t xml:space="preserve">called positive </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ghhghh</t>
+          <t>he is intrest to join cse</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -616,30 +624,86 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>ak</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>tkr</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">positive </t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>he is joined in ece</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2025-05-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>anil</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>rr</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>called</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>ghhghh</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2025-05-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>anil</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>kk</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>9704755549</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>positive</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>he joined in cse</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>2025-05-07</t>
         </is>

--- a/faculty_call_reports.xlsx
+++ b/faculty_call_reports.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,32 +468,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>anil</t>
+          <t>user</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>tttt</t>
+          <t>ak</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>9704755549</t>
+          <t>08008832044</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>called</t>
+          <t>Call Connected</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>he joined in cse</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-12</t>
         </is>
       </c>
     </row>
@@ -505,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>hhhh</t>
+          <t>neha</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,17 +515,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>called</t>
+          <t>Call Connected</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>he joined in cse</t>
+          <t>he is joined</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-11</t>
         </is>
       </c>
     </row>
@@ -537,41 +537,41 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>neha</t>
+          <t>buddi</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>9704755549</t>
+          <t>09704755549</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Connected</t>
+          <t>Call Connected</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ffff</t>
+          <t>hhhhh</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-11</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>astc</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>anil</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>neha</t>
-        </is>
-      </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>9704755549</t>
@@ -579,17 +579,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Connected</t>
+          <t>Call Connected</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ffff</t>
+          <t>hhhhhh</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-11</t>
         </is>
       </c>
     </row>
@@ -601,111 +601,59 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>rk</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
+          <t>ravi</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>9704755549</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">called positive </t>
+          <t>Call Connected</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>he is intrest to join cse</t>
+          <t xml:space="preserve">he is interested </t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-10</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ak</t>
+          <t>anil</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>tkr</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
+          <t>neha</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>08008832044</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">positive </t>
+          <t>Call Connected</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>he is joined in ece</t>
+          <t>dddd</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>anil</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>rr</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>called</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>ghhghh</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2025-05-07</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>anil</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>kk</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>9704755549</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>he joined in cse</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2025-05-07</t>
+          <t>2025-05-10</t>
         </is>
       </c>
     </row>
